--- a/doc/設計書・定義書/02_機能一覧_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/02_機能一覧_Panban_0610pm_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\test\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A81DE7-3ECB-4AD2-8BF2-DD019CFD58B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9C92B1-4EAB-4F97-8249-47140AD33288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -422,13 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>林惟玖哉</t>
-    <rPh sb="0" eb="4">
-      <t>ハヤシイクヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,26 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教師に匿名質問</t>
-    <rPh sb="0" eb="2">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問（匿名）にリダイレクト。</t>
-    <rPh sb="3" eb="5">
-      <t>トクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問（各教科）</t>
     <rPh sb="3" eb="6">
       <t>カクキョウカ</t>
@@ -645,6 +618,13 @@
   </si>
   <si>
     <t>質問したい教科選択メニュー、自分の質問数、質問回答数を表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林惟玖哉、正木綸</t>
+    <rPh sb="0" eb="4">
+      <t>ハヤシイクヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1030,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,9 +1105,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1458,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I44"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1486,10 +1463,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -1499,28 +1476,28 @@
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>45449</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="38"/>
+      <c r="H4" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="39">
-        <v>45450</v>
-      </c>
-      <c r="I5" s="40"/>
+      <c r="H5" s="38">
+        <v>45453</v>
+      </c>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1604,7 +1581,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
-        <f t="shared" ref="B10:B37" si="0">B9+1</f>
+        <f t="shared" ref="B10:B36" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1728,7 +1705,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <f>B14+1</f>
         <v>8</v>
       </c>
@@ -1742,7 +1719,7 @@
       <c r="F15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -1796,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>21</v>
@@ -1820,7 +1797,7 @@
       <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -1837,7 +1814,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>39</v>
@@ -1846,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -1890,13 +1867,13 @@
         <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>21</v>
@@ -1915,7 +1892,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>23</v>
@@ -1936,17 +1913,17 @@
         <v>48</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="37" t="s">
-        <v>79</v>
+      <c r="E23" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>21</v>
@@ -1962,16 +1939,16 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>21</v>
@@ -1983,20 +1960,20 @@
         <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>21</v>
@@ -2008,20 +1985,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>21</v>
@@ -2033,20 +2010,20 @@
         <v>20</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>21</v>
@@ -2071,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>21</v>
@@ -2087,7 +2064,7 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>58</v>
@@ -2096,7 +2073,7 @@
         <v>23</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>21</v>
@@ -2110,18 +2087,18 @@
       <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="32" t="s">
-        <v>70</v>
+      <c r="H30" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>21</v>
@@ -2133,20 +2110,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="D31" s="27"/>
       <c r="E31" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>21</v>
@@ -2157,21 +2134,21 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>71</v>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>21</v>
@@ -2183,74 +2160,62 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="27"/>
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="35"/>
       <c r="E34" s="13" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
@@ -2262,21 +2227,12 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="20"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7"/>
+      <c r="G37" s="1"/>
+      <c r="H37"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
@@ -2301,10 +2257,6 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
       <c r="H43"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
-      <c r="H44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2319,18 +2271,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2448,18 +2400,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
